--- a/IEEEtran/IEEEtran/Figures/charts.xlsx
+++ b/IEEEtran/IEEEtran/Figures/charts.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Performance" sheetId="2" r:id="rId2"/>
-    <sheet name="CostToPerformance" sheetId="3" r:id="rId3"/>
+    <sheet name="Human" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>beta</t>
   </si>
@@ -66,15 +66,40 @@
   <si>
     <t>CeresII (24DN)</t>
   </si>
+  <si>
+    <t>SuperMikeII (127DN)</t>
+  </si>
+  <si>
+    <t>SwatIII (15DN)</t>
+  </si>
+  <si>
+    <t>CeresII (39DN)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +122,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -156,7 +185,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -266,11 +294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2119469520"/>
-        <c:axId val="-2119465744"/>
+        <c:axId val="-2098486784"/>
+        <c:axId val="-2114910368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119469520"/>
+        <c:axId val="-2098486784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -373,7 +400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119465744"/>
+        <c:crossAx val="-2114910368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119465744"/>
+        <c:axId val="-2114910368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +458,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -492,7 +518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119469520"/>
+        <c:crossAx val="-2098486784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -581,7 +607,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -691,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2121191584"/>
-        <c:axId val="-2121197568"/>
+        <c:axId val="-2131370192"/>
+        <c:axId val="-2131411632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121191584"/>
+        <c:axId val="-2131370192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -798,7 +822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121197568"/>
+        <c:crossAx val="-2131411632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121197568"/>
+        <c:axId val="-2131411632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +880,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -917,7 +940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121191584"/>
+        <c:crossAx val="-2131370192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,7 +1004,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1103,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2121222688"/>
-        <c:axId val="-2121226032"/>
+        <c:axId val="2114304992"/>
+        <c:axId val="2114416176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121222688"/>
+        <c:axId val="2114304992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121226032"/>
+        <c:crossAx val="2114416176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121226032"/>
+        <c:axId val="2114416176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121222688"/>
+        <c:crossAx val="2114304992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,11 +1540,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2055954416"/>
-        <c:axId val="-2060471936"/>
+        <c:axId val="-2102187664"/>
+        <c:axId val="-2096019808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2055954416"/>
+        <c:axId val="-2102187664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060471936"/>
+        <c:crossAx val="-2096019808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1573,7 +1595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060471936"/>
+        <c:axId val="-2096019808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055954416"/>
+        <c:crossAx val="-2102187664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4015,16 +4037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4629,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4664,12 +4686,6 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -4782,8 +4798,50 @@
         <v>0.69587786259541984</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>9567</v>
+      </c>
+      <c r="C29">
+        <v>21736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>10793</v>
+      </c>
+      <c r="C30">
+        <v>22320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>6422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4793,7 +4851,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/IEEEtran/IEEEtran/Figures/charts.xlsx
+++ b/IEEEtran/IEEEtran/Figures/charts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>beta</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>CeresII (39DN)</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -294,11 +297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2098486784"/>
-        <c:axId val="-2114910368"/>
+        <c:axId val="-2120428768"/>
+        <c:axId val="-2086576800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098486784"/>
+        <c:axId val="-2120428768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114910368"/>
+        <c:crossAx val="-2086576800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114910368"/>
+        <c:axId val="-2086576800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098486784"/>
+        <c:crossAx val="-2120428768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,11 +719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2131370192"/>
-        <c:axId val="-2131411632"/>
+        <c:axId val="-2121123616"/>
+        <c:axId val="-2086201024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131370192"/>
+        <c:axId val="-2121123616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131411632"/>
+        <c:crossAx val="-2086201024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131411632"/>
+        <c:axId val="-2086201024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131370192"/>
+        <c:crossAx val="-2121123616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,11 +1128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2114304992"/>
-        <c:axId val="2114416176"/>
+        <c:axId val="-2106251072"/>
+        <c:axId val="-2106361904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114304992"/>
+        <c:axId val="-2106251072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114416176"/>
+        <c:crossAx val="-2106361904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1180,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114416176"/>
+        <c:axId val="-2106361904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114304992"/>
+        <c:crossAx val="-2106251072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,11 +1543,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102187664"/>
-        <c:axId val="-2096019808"/>
+        <c:axId val="-2086175920"/>
+        <c:axId val="-2086172608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102187664"/>
+        <c:axId val="-2086175920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096019808"/>
+        <c:crossAx val="-2086172608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1595,7 +1598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096019808"/>
+        <c:axId val="-2086172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1649,743 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102187664"/>
+        <c:crossAx val="-2086175920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (127DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$33:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII (15DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$34:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.12814884498798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.026867868973132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CeresII (39DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$35:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.671265809553674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.804655870445344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2086345104"/>
+        <c:axId val="-2085979648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2086345104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2085979648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2085979648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086345104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuperMikeII (127DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$E$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SwatIII (15DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$E$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25619862867087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.233198075791053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CeresII (39DN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$E$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.125840281397993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.150846534598143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2083189264"/>
+        <c:axId val="-2107297024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2083189264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107297024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107297024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083189264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,6 +2626,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3436,6 +4255,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4065,6 +5890,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4651,10 +6536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4798,7 +6683,7 @@
         <v>0.69587786259541984</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4808,8 +6693,17 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4819,8 +6713,20 @@
       <c r="C29">
         <v>21736</v>
       </c>
+      <c r="D29">
+        <f>3804*128</f>
+        <v>486912</v>
+      </c>
+      <c r="E29">
+        <f>D29*B29</f>
+        <v>4658287104</v>
+      </c>
+      <c r="F29">
+        <f>D29*C29</f>
+        <v>10583519232</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4830,13 +6736,98 @@
       <c r="C30">
         <v>22320</v>
       </c>
+      <c r="D30">
+        <f>6911*16</f>
+        <v>110576</v>
+      </c>
+      <c r="E30">
+        <f>D30*B30</f>
+        <v>1193446768</v>
+      </c>
+      <c r="F30">
+        <f>D30*C30</f>
+        <v>2468056320</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31">
         <v>6422</v>
+      </c>
+      <c r="C31">
+        <v>17490</v>
+      </c>
+      <c r="D31">
+        <f>2282*40</f>
+        <v>91280</v>
+      </c>
+      <c r="E31">
+        <f>D31*B31</f>
+        <v>586200160</v>
+      </c>
+      <c r="F31">
+        <f>D31*C31</f>
+        <v>1596487200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f>B29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>C29/C29</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>E29/E29</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>F29/F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>B30/B29</f>
+        <v>1.1281488449879795</v>
+      </c>
+      <c r="C34">
+        <f>C30/C29</f>
+        <v>1.0268678689731321</v>
+      </c>
+      <c r="E34">
+        <f>E30/E29</f>
+        <v>0.25619862867087034</v>
+      </c>
+      <c r="F34">
+        <f>F30/F29</f>
+        <v>0.2331980757910527</v>
+      </c>
+      <c r="H34">
+        <f>40*64/1024</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f>B31/B29</f>
+        <v>0.6712658095536741</v>
+      </c>
+      <c r="C35">
+        <f>C31/C29</f>
+        <v>0.80465587044534415</v>
+      </c>
+      <c r="E35">
+        <f>E31/E29</f>
+        <v>0.12584028139799261</v>
+      </c>
+      <c r="F35">
+        <f>F31/F29</f>
+        <v>0.15084653459814301</v>
       </c>
     </row>
   </sheetData>
